--- a/output/1Y_P31_KFSDIV.xlsx
+++ b/output/1Y_P31_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.2659</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.4103</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="F3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="H3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>12.3976</v>
       </c>
       <c r="C4" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D4" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E4" s="1">
-        <v>1621.0506</v>
+        <v>1617.8054</v>
       </c>
       <c r="F4" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="H4" s="1">
-        <v>20097.1374</v>
+        <v>20016.7822</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20097.1374</v>
+        <v>20016.7822</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.3377</v>
+        <v>12.3624</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9633.129199999999</v>
+        <v>-9633.863600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.9013</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E5" s="1">
-        <v>2427.6584</v>
+        <v>2422.8028</v>
       </c>
       <c r="F5" s="1">
-        <v>778.2693</v>
+        <v>776.7097</v>
       </c>
       <c r="H5" s="1">
-        <v>31319.9489</v>
+        <v>31194.7972</v>
       </c>
       <c r="I5" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="J5" s="1">
-        <v>31686.8197</v>
+        <v>31560.9337</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3576</v>
+        <v>12.3824</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10040.7634</v>
+        <v>-10040.6818</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0528</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.3527</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E6" s="1">
-        <v>3205.9277</v>
+        <v>3199.5125</v>
       </c>
       <c r="F6" s="1">
-        <v>751.965</v>
+        <v>750.4527</v>
       </c>
       <c r="H6" s="1">
-        <v>42807.7903</v>
+        <v>42636.7036</v>
       </c>
       <c r="I6" s="1">
-        <v>326.1073</v>
+        <v>325.4546</v>
       </c>
       <c r="J6" s="1">
-        <v>43133.8976</v>
+        <v>42962.1582</v>
       </c>
       <c r="K6" s="1">
-        <v>40040.7634</v>
+        <v>40040.6818</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4896</v>
+        <v>12.5146</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10040.7634</v>
+        <v>-10040.6818</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0347</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.8804</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E7" s="1">
-        <v>3957.8927</v>
+        <v>3949.9652</v>
       </c>
       <c r="F7" s="1">
-        <v>723.3771</v>
+        <v>721.9253</v>
       </c>
       <c r="H7" s="1">
-        <v>54937.1337</v>
+        <v>54717.2878</v>
       </c>
       <c r="I7" s="1">
-        <v>285.3439</v>
+        <v>284.7728</v>
       </c>
       <c r="J7" s="1">
-        <v>55222.4776</v>
+        <v>55002.0606</v>
       </c>
       <c r="K7" s="1">
-        <v>50081.5268</v>
+        <v>50081.3637</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6536</v>
+        <v>12.6789</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1442.6674</v>
+        <v>1439.7806</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8598.096</v>
+        <v>-8600.9012</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0393</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.6268</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E8" s="1">
-        <v>4681.2698</v>
+        <v>4671.8905</v>
       </c>
       <c r="F8" s="1">
-        <v>702.9021</v>
+        <v>701.4585</v>
       </c>
       <c r="H8" s="1">
-        <v>68471.99679999999</v>
+        <v>68198.3891</v>
       </c>
       <c r="I8" s="1">
-        <v>1687.248</v>
+        <v>1683.8716</v>
       </c>
       <c r="J8" s="1">
-        <v>70159.2448</v>
+        <v>69882.26059999999</v>
       </c>
       <c r="K8" s="1">
-        <v>60122.2903</v>
+        <v>60122.0455</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8432</v>
+        <v>12.8689</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10281.208</v>
+        <v>-10280.6453</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0757</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>15.3636</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E9" s="1">
-        <v>5384.1719</v>
+        <v>5373.349</v>
       </c>
       <c r="F9" s="1">
-        <v>669.1926</v>
+        <v>667.8172</v>
       </c>
       <c r="H9" s="1">
-        <v>82720.2626</v>
+        <v>82389.02250000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1406.04</v>
+        <v>1403.2263</v>
       </c>
       <c r="J9" s="1">
-        <v>84126.3026</v>
+        <v>83792.2488</v>
       </c>
       <c r="K9" s="1">
-        <v>70403.4982</v>
+        <v>70402.69070000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.076</v>
+        <v>13.1022</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10281.208</v>
+        <v>-10280.6453</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0495</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.8711</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E10" s="1">
-        <v>6053.3645</v>
+        <v>6041.1662</v>
       </c>
       <c r="F10" s="1">
-        <v>741.1963</v>
+        <v>739.6733</v>
       </c>
       <c r="H10" s="1">
-        <v>83966.8241</v>
+        <v>83630.28</v>
       </c>
       <c r="I10" s="1">
-        <v>1124.832</v>
+        <v>1122.5811</v>
       </c>
       <c r="J10" s="1">
-        <v>85091.65609999999</v>
+        <v>84752.861</v>
       </c>
       <c r="K10" s="1">
-        <v>80684.7062</v>
+        <v>80683.336</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3289</v>
+        <v>13.3556</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2422.8773</v>
+        <v>2418.007</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7858.3307</v>
+        <v>-7862.6382</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.096</v>
+        <v>-0.0964</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.1252</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E11" s="1">
-        <v>6794.5608</v>
+        <v>6780.8395</v>
       </c>
       <c r="F11" s="1">
-        <v>785.0391</v>
+        <v>783.3149</v>
       </c>
       <c r="H11" s="1">
-        <v>95974.53</v>
+        <v>95589.49430000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3266.5013</v>
+        <v>3259.9428</v>
       </c>
       <c r="J11" s="1">
-        <v>99241.0313</v>
+        <v>98849.4371</v>
       </c>
       <c r="K11" s="1">
-        <v>90965.9142</v>
+        <v>90963.9813</v>
       </c>
       <c r="L11" s="1">
-        <v>13.388</v>
+        <v>13.4149</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11088.8338</v>
+        <v>-11086.6476</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0436</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.1934</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>7579.5998</v>
+        <v>7564.1544</v>
       </c>
       <c r="F12" s="1">
-        <v>781.2669</v>
+        <v>779.5531</v>
       </c>
       <c r="H12" s="1">
-        <v>107580.2925</v>
+        <v>107146.2471</v>
       </c>
       <c r="I12" s="1">
-        <v>2177.6675</v>
+        <v>2173.2952</v>
       </c>
       <c r="J12" s="1">
-        <v>109757.96</v>
+        <v>109319.5423</v>
       </c>
       <c r="K12" s="1">
-        <v>102054.748</v>
+        <v>102050.6289</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4644</v>
+        <v>13.4913</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11088.8338</v>
+        <v>-11086.6476</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0047</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>14.1176</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E13" s="1">
-        <v>8360.8668</v>
+        <v>8343.7075</v>
       </c>
       <c r="F13" s="1">
-        <v>785.4617</v>
+        <v>783.7358</v>
       </c>
       <c r="H13" s="1">
-        <v>118035.3726</v>
+        <v>117557.8318</v>
       </c>
       <c r="I13" s="1">
-        <v>1088.8338</v>
+        <v>1086.6476</v>
       </c>
       <c r="J13" s="1">
-        <v>119124.2063</v>
+        <v>118644.4794</v>
       </c>
       <c r="K13" s="1">
-        <v>113143.5818</v>
+        <v>113137.2765</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5325</v>
+        <v>13.5596</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3410.8199</v>
+        <v>3403.8695</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7678.0138</v>
+        <v>-7682.7781</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>15.3311</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E14" s="1">
-        <v>9146.3284</v>
+        <v>9127.4432</v>
       </c>
       <c r="F14" s="1">
-        <v>-9146.3284</v>
+        <v>-9127.4432</v>
       </c>
       <c r="H14" s="1">
-        <v>140223.2759</v>
+        <v>139653.5321</v>
       </c>
       <c r="I14" s="1">
-        <v>3410.8199</v>
+        <v>3403.8695</v>
       </c>
       <c r="J14" s="1">
-        <v>143634.0958</v>
+        <v>143057.4015</v>
       </c>
       <c r="K14" s="1">
-        <v>124232.4155</v>
+        <v>124223.9241</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5828</v>
+        <v>13.6099</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>140223.2759</v>
+        <v>139653.5321</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1124</v>
+        <v>0.112</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.2659</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.4103</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="F3" s="1">
-        <v>796.2962</v>
+        <v>801.1549</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9882.275299999999</v>
+        <v>-9962.5219</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>12.3976</v>
       </c>
       <c r="C4" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D4" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E4" s="1">
-        <v>1611.5646</v>
+        <v>1614.7915</v>
       </c>
       <c r="F4" s="1">
-        <v>808.2586</v>
+        <v>809.8819999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19979.5331</v>
+        <v>19979.4921</v>
       </c>
       <c r="I4" s="1">
-        <v>117.7247</v>
+        <v>37.4781</v>
       </c>
       <c r="J4" s="1">
-        <v>20097.2579</v>
+        <v>20016.9702</v>
       </c>
       <c r="K4" s="1">
-        <v>19882.2753</v>
+        <v>19962.5219</v>
       </c>
       <c r="L4" s="1">
-        <v>12.3373</v>
+        <v>12.3623</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9653.596100000001</v>
+        <v>-9694.5416</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.9013</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E5" s="1">
-        <v>2419.8232</v>
+        <v>2424.6735</v>
       </c>
       <c r="F5" s="1">
-        <v>680.6396</v>
+        <v>682.002</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31218.8649</v>
+        <v>31218.8834</v>
       </c>
       <c r="I5" s="1">
-        <v>464.1286</v>
+        <v>342.9365</v>
       </c>
       <c r="J5" s="1">
-        <v>31682.9936</v>
+        <v>31561.8199</v>
       </c>
       <c r="K5" s="1">
-        <v>29902.7421</v>
+        <v>30023.1999</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3574</v>
+        <v>12.3824</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8781.203100000001</v>
+        <v>-8816.376099999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0527</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.3527</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E6" s="1">
-        <v>3100.4627</v>
+        <v>3106.6755</v>
       </c>
       <c r="F6" s="1">
-        <v>644.0983</v>
+        <v>645.3882</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41399.5489</v>
+        <v>41399.5573</v>
       </c>
       <c r="I6" s="1">
-        <v>1682.9255</v>
+        <v>1526.5604</v>
       </c>
       <c r="J6" s="1">
-        <v>43082.4744</v>
+        <v>42926.1177</v>
       </c>
       <c r="K6" s="1">
-        <v>38683.9452</v>
+        <v>38839.5761</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4768</v>
+        <v>12.502</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8600.4511</v>
+        <v>-8634.971</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0336</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.8804</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E7" s="1">
-        <v>3744.561</v>
+        <v>3752.0636</v>
       </c>
       <c r="F7" s="1">
-        <v>578.081</v>
+        <v>579.2532</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51976.0049</v>
+        <v>51975.8367</v>
       </c>
       <c r="I7" s="1">
-        <v>3082.4744</v>
+        <v>2891.5894</v>
       </c>
       <c r="J7" s="1">
-        <v>55058.4792</v>
+        <v>54867.4261</v>
       </c>
       <c r="K7" s="1">
-        <v>47284.3964</v>
+        <v>47474.547</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6275</v>
+        <v>12.6529</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1395.2082</v>
+        <v>1398.004</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6628.7869</v>
+        <v>-6658.3658</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0372</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.6268</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E8" s="1">
-        <v>4322.642</v>
+        <v>4331.3169</v>
       </c>
       <c r="F8" s="1">
-        <v>463.0938</v>
+        <v>463.992</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>63226.42</v>
+        <v>63226.8311</v>
       </c>
       <c r="I8" s="1">
-        <v>6453.6875</v>
+        <v>6233.2236</v>
       </c>
       <c r="J8" s="1">
-        <v>69680.1075</v>
+        <v>69460.05469999999</v>
       </c>
       <c r="K8" s="1">
-        <v>55308.3915</v>
+        <v>55530.9168</v>
       </c>
       <c r="L8" s="1">
-        <v>12.795</v>
+        <v>12.8208</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6773.58</v>
+        <v>-6800.3125</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.07099999999999999</v>
+        <v>0.0708</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>15.3636</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E9" s="1">
-        <v>4785.7358</v>
+        <v>4795.3088</v>
       </c>
       <c r="F9" s="1">
-        <v>421.3771</v>
+        <v>422.2299</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73526.13009999999</v>
+        <v>73525.9906</v>
       </c>
       <c r="I9" s="1">
-        <v>9680.1075</v>
+        <v>9432.911099999999</v>
       </c>
       <c r="J9" s="1">
-        <v>83206.23759999999</v>
+        <v>82958.9017</v>
       </c>
       <c r="K9" s="1">
-        <v>62081.9715</v>
+        <v>62331.2293</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9723</v>
+        <v>12.9984</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6473.8699</v>
+        <v>-6499.9766</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0443</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.8711</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E10" s="1">
-        <v>5207.1129</v>
+        <v>5217.5388</v>
       </c>
       <c r="F10" s="1">
-        <v>1281.1973</v>
+        <v>1283.7543</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>72228.38400000001</v>
+        <v>72228.476</v>
       </c>
       <c r="I10" s="1">
-        <v>13206.2376</v>
+        <v>12932.9346</v>
       </c>
       <c r="J10" s="1">
-        <v>85434.6216</v>
+        <v>85161.4106</v>
       </c>
       <c r="K10" s="1">
-        <v>68555.8414</v>
+        <v>68831.2058</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1658</v>
+        <v>13.1923</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2153.5811</v>
+        <v>2157.889</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-15618.0349</v>
+        <v>-15684.8834</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0834</v>
+        <v>-0.0839</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.1252</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E11" s="1">
-        <v>6488.3102</v>
+        <v>6501.293</v>
       </c>
       <c r="F11" s="1">
-        <v>591.2355</v>
+        <v>592.4148</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91648.6796</v>
+        <v>91648.7279</v>
       </c>
       <c r="I11" s="1">
-        <v>7588.2027</v>
+        <v>7248.0512</v>
       </c>
       <c r="J11" s="1">
-        <v>99236.8823</v>
+        <v>98896.7791</v>
       </c>
       <c r="K11" s="1">
-        <v>86327.4574</v>
+        <v>86673.9782</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3051</v>
+        <v>13.3318</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8351.320400000001</v>
+        <v>-8384.7435</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0398</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.1934</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>7079.5458</v>
+        <v>7093.7079</v>
       </c>
       <c r="F12" s="1">
-        <v>670.5352</v>
+        <v>671.9116</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100482.825</v>
+        <v>100482.3721</v>
       </c>
       <c r="I12" s="1">
-        <v>9236.882299999999</v>
+        <v>8863.307699999999</v>
       </c>
       <c r="J12" s="1">
-        <v>109719.7073</v>
+        <v>109345.6798</v>
       </c>
       <c r="K12" s="1">
-        <v>94678.7778</v>
+        <v>95058.72169999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3736</v>
+        <v>13.4004</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9517.174999999999</v>
+        <v>-9555.7924</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0044</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>14.1176</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E13" s="1">
-        <v>7750.081</v>
+        <v>7765.6195</v>
       </c>
       <c r="F13" s="1">
-        <v>749.9473</v>
+        <v>751.4217</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109412.5439</v>
+        <v>109412.9192</v>
       </c>
       <c r="I13" s="1">
-        <v>9719.7073</v>
+        <v>9307.5152</v>
       </c>
       <c r="J13" s="1">
-        <v>119132.2512</v>
+        <v>118720.4344</v>
       </c>
       <c r="K13" s="1">
-        <v>104195.9528</v>
+        <v>104614.5142</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4445</v>
+        <v>13.4715</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3185.7956</v>
+        <v>3192.1685</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7401.6605</v>
+        <v>-7437.3676</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0049</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>15.3311</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E14" s="1">
-        <v>8500.0283</v>
+        <v>8517.0412</v>
       </c>
       <c r="F14" s="1">
-        <v>-8500.0283</v>
+        <v>-8517.0412</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130314.7844</v>
+        <v>130314.1369</v>
       </c>
       <c r="I14" s="1">
-        <v>12318.0468</v>
+        <v>11870.1476</v>
       </c>
       <c r="J14" s="1">
-        <v>142632.8311</v>
+        <v>142184.2845</v>
       </c>
       <c r="K14" s="1">
-        <v>114783.4089</v>
+        <v>115244.0503</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5039</v>
+        <v>13.531</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130314.7844</v>
+        <v>130314.1369</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1045</v>
+        <v>0.1046</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.2659</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.4103</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="F3" s="1">
-        <v>800.3252</v>
+        <v>805.1919</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9932.275299999999</v>
+        <v>-10012.7226</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>12.3976</v>
       </c>
       <c r="C4" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D4" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E4" s="1">
-        <v>1615.5935</v>
+        <v>1618.8285</v>
       </c>
       <c r="F4" s="1">
-        <v>812.0705</v>
+        <v>803.9733</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20029.482</v>
+        <v>20029.4409</v>
       </c>
       <c r="I4" s="1">
-        <v>67.7247</v>
+        <v>-12.7226</v>
       </c>
       <c r="J4" s="1">
-        <v>20097.2067</v>
+        <v>20016.7183</v>
       </c>
       <c r="K4" s="1">
-        <v>19932.2753</v>
+        <v>20012.7226</v>
       </c>
       <c r="L4" s="1">
-        <v>12.3374</v>
+        <v>12.3625</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9700.853999999999</v>
+        <v>-9621.141</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.9013</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E5" s="1">
-        <v>2427.664</v>
+        <v>2422.8017</v>
       </c>
       <c r="F5" s="1">
-        <v>696.1299</v>
+        <v>707.2516000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31320.021</v>
+        <v>31194.7837</v>
       </c>
       <c r="I5" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="J5" s="1">
-        <v>31686.8918</v>
+        <v>31560.9201</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3576</v>
+        <v>12.3824</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8981.049800000001</v>
+        <v>-9142.782499999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0528</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.3527</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E6" s="1">
-        <v>3123.7938</v>
+        <v>3130.0533</v>
       </c>
       <c r="F6" s="1">
-        <v>658.4005</v>
+        <v>659.7190000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41711.0818</v>
+        <v>41711.0903</v>
       </c>
       <c r="I6" s="1">
-        <v>1385.8209</v>
+        <v>1223.354</v>
       </c>
       <c r="J6" s="1">
-        <v>43096.9027</v>
+        <v>42934.4442</v>
       </c>
       <c r="K6" s="1">
-        <v>38981.0498</v>
+        <v>39142.7825</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4788</v>
+        <v>12.5055</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8791.424499999999</v>
+        <v>-8826.710999999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0338</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.8804</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E7" s="1">
-        <v>3782.1943</v>
+        <v>3789.7723</v>
       </c>
       <c r="F7" s="1">
-        <v>594.8423</v>
+        <v>596.0483</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52498.3702</v>
+        <v>52498.2004</v>
       </c>
       <c r="I7" s="1">
-        <v>2594.3965</v>
+        <v>2396.643</v>
       </c>
       <c r="J7" s="1">
-        <v>55092.7667</v>
+        <v>54894.8434</v>
       </c>
       <c r="K7" s="1">
-        <v>47772.4743</v>
+        <v>47969.4935</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6309</v>
+        <v>12.6576</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1405.7072</v>
+        <v>1408.524</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6850.9414</v>
+        <v>-6881.4347</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0376</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.6268</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E8" s="1">
-        <v>4377.0366</v>
+        <v>4385.8206</v>
       </c>
       <c r="F8" s="1">
-        <v>481.0864</v>
+        <v>482.0202</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64022.0389</v>
+        <v>64022.4552</v>
       </c>
       <c r="I8" s="1">
-        <v>5743.4551</v>
+        <v>5515.2083</v>
       </c>
       <c r="J8" s="1">
-        <v>69765.49400000001</v>
+        <v>69537.6634</v>
       </c>
       <c r="K8" s="1">
-        <v>56029.1229</v>
+        <v>56259.4522</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8007</v>
+        <v>12.8276</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7036.755</v>
+        <v>-7064.5369</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0718</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>15.3636</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E9" s="1">
-        <v>4858.123</v>
+        <v>4867.8409</v>
       </c>
       <c r="F9" s="1">
-        <v>441.0313</v>
+        <v>441.9236</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74638.2589</v>
+        <v>74638.1173</v>
       </c>
       <c r="I9" s="1">
-        <v>8706.7001</v>
+        <v>8450.671399999999</v>
       </c>
       <c r="J9" s="1">
-        <v>83344.95909999999</v>
+        <v>83088.7886</v>
       </c>
       <c r="K9" s="1">
-        <v>63065.8778</v>
+        <v>63323.9891</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9815</v>
+        <v>13.0086</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6775.8289</v>
+        <v>-6803.1489</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0449</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.8711</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E10" s="1">
-        <v>5299.1544</v>
+        <v>5309.7645</v>
       </c>
       <c r="F10" s="1">
-        <v>1320.4474</v>
+        <v>1323.0828</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>73505.10000000001</v>
+        <v>73505.1937</v>
       </c>
       <c r="I10" s="1">
-        <v>11930.8712</v>
+        <v>11647.5225</v>
       </c>
       <c r="J10" s="1">
-        <v>85435.9712</v>
+        <v>85152.71610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>69841.7068</v>
+        <v>70127.1379</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1798</v>
+        <v>13.2072</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2186.1554</v>
+        <v>2190.5284</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-16129.903</v>
+        <v>-16198.8673</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0847</v>
+        <v>-0.0853</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.1252</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E11" s="1">
-        <v>6619.6018</v>
+        <v>6632.8473</v>
       </c>
       <c r="F11" s="1">
-        <v>621.3763</v>
+        <v>622.6159</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93503.1991</v>
+        <v>93503.2484</v>
       </c>
       <c r="I11" s="1">
-        <v>5800.9683</v>
+        <v>5448.6551</v>
       </c>
       <c r="J11" s="1">
-        <v>99304.16740000001</v>
+        <v>98951.9035</v>
       </c>
       <c r="K11" s="1">
-        <v>88157.7651</v>
+        <v>88516.5337</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3177</v>
+        <v>13.3452</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8777.065000000001</v>
+        <v>-8812.193499999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0405</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.1934</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>7240.9781</v>
+        <v>7255.4632</v>
       </c>
       <c r="F12" s="1">
-        <v>705.7905</v>
+        <v>707.2383</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102774.0988</v>
+        <v>102773.6356</v>
       </c>
       <c r="I12" s="1">
-        <v>7023.9033</v>
+        <v>6636.4616</v>
       </c>
       <c r="J12" s="1">
-        <v>109798.0021</v>
+        <v>109410.0972</v>
       </c>
       <c r="K12" s="1">
-        <v>96934.83010000001</v>
+        <v>97328.72719999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.387</v>
+        <v>13.4145</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10017.5666</v>
+        <v>-10058.201</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0045</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>14.1176</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E13" s="1">
-        <v>7946.7686</v>
+        <v>7962.7014</v>
       </c>
       <c r="F13" s="1">
-        <v>790.9505</v>
+        <v>792.5063</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112189.3003</v>
+        <v>112189.6852</v>
       </c>
       <c r="I13" s="1">
-        <v>7006.3367</v>
+        <v>6578.2607</v>
       </c>
       <c r="J13" s="1">
-        <v>119195.637</v>
+        <v>118767.9458</v>
       </c>
       <c r="K13" s="1">
-        <v>106952.3967</v>
+        <v>107386.9281</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4586</v>
+        <v>13.4862</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3258.4402</v>
+        <v>3264.9584</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7907.8832</v>
+        <v>-7945.7567</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.005</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>15.3311</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E14" s="1">
-        <v>8737.7191</v>
+        <v>8755.207700000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8737.7191</v>
+        <v>-8755.207700000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>133958.8459</v>
+        <v>133958.1803</v>
       </c>
       <c r="I14" s="1">
-        <v>9098.4534</v>
+        <v>8632.5039</v>
       </c>
       <c r="J14" s="1">
-        <v>143057.2993</v>
+        <v>142590.6842</v>
       </c>
       <c r="K14" s="1">
-        <v>118118.7201</v>
+        <v>118597.6433</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5183</v>
+        <v>13.546</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133958.8459</v>
+        <v>133958.1803</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1073</v>
@@ -2992,16 +2992,16 @@
         <v>12.2659</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.4103</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="F3" s="1">
-        <v>804.3541</v>
+        <v>804.1688</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9982.275299999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>12.3976</v>
       </c>
       <c r="C4" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D4" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E4" s="1">
-        <v>1619.6224</v>
+        <v>1617.8054</v>
       </c>
       <c r="F4" s="1">
-        <v>808.0374</v>
+        <v>804.9974</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20079.4308</v>
+        <v>20016.7822</v>
       </c>
       <c r="I4" s="1">
-        <v>17.7247</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20097.1555</v>
+        <v>20016.7822</v>
       </c>
       <c r="K4" s="1">
-        <v>19982.2753</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.3376</v>
+        <v>12.3624</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9650.853999999999</v>
+        <v>-9633.863600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.9013</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E5" s="1">
-        <v>2427.6598</v>
+        <v>2422.8028</v>
       </c>
       <c r="F5" s="1">
-        <v>719.6207000000001</v>
+        <v>730.7843</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31319.9678</v>
+        <v>31194.7972</v>
       </c>
       <c r="I5" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="J5" s="1">
-        <v>31686.8386</v>
+        <v>31560.9337</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3576</v>
+        <v>12.3824</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9284.1142</v>
+        <v>-9446.9943</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0528</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.3527</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E6" s="1">
-        <v>3147.2805</v>
+        <v>3153.587</v>
       </c>
       <c r="F6" s="1">
-        <v>672.9244</v>
+        <v>674.272</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42024.6924</v>
+        <v>42024.701</v>
       </c>
       <c r="I6" s="1">
-        <v>1082.7566</v>
+        <v>919.1421</v>
       </c>
       <c r="J6" s="1">
-        <v>43107.449</v>
+        <v>42943.8431</v>
       </c>
       <c r="K6" s="1">
-        <v>39284.1142</v>
+        <v>39446.9943</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4819</v>
+        <v>12.5086</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8985.3577</v>
+        <v>-9021.422699999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0341</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.8804</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E7" s="1">
-        <v>3820.2049</v>
+        <v>3827.8591</v>
       </c>
       <c r="F7" s="1">
-        <v>611.9549</v>
+        <v>613.1953999999999</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53025.9722</v>
+        <v>53025.8007</v>
       </c>
       <c r="I7" s="1">
-        <v>2097.3989</v>
+        <v>1897.7195</v>
       </c>
       <c r="J7" s="1">
-        <v>55123.3711</v>
+        <v>54923.5201</v>
       </c>
       <c r="K7" s="1">
-        <v>48269.4718</v>
+        <v>48468.417</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6353</v>
+        <v>12.662</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1416.2762</v>
+        <v>1419.1142</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7077.9021</v>
+        <v>-7109.3294</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.038</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.6268</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E8" s="1">
-        <v>4432.1598</v>
+        <v>4441.0544</v>
       </c>
       <c r="F8" s="1">
-        <v>499.565</v>
+        <v>500.5354</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64828.3147</v>
+        <v>64828.7362</v>
       </c>
       <c r="I8" s="1">
-        <v>5019.4968</v>
+        <v>4788.3901</v>
       </c>
       <c r="J8" s="1">
-        <v>69847.81140000001</v>
+        <v>69617.1262</v>
       </c>
       <c r="K8" s="1">
-        <v>56763.6502</v>
+        <v>56996.8606</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8072</v>
+        <v>12.8341</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7307.0374</v>
+        <v>-7335.8973</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0725</v>
+        <v>0.0723</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>15.3636</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E9" s="1">
-        <v>4931.7248</v>
+        <v>4941.5899</v>
       </c>
       <c r="F9" s="1">
-        <v>461.328</v>
+        <v>462.2611</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75769.0469</v>
+        <v>75768.9031</v>
       </c>
       <c r="I9" s="1">
-        <v>7712.4593</v>
+        <v>7452.4928</v>
       </c>
       <c r="J9" s="1">
-        <v>83481.50629999999</v>
+        <v>83221.3959</v>
       </c>
       <c r="K9" s="1">
-        <v>64070.6877</v>
+        <v>64332.7578</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9915</v>
+        <v>13.0186</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7087.6587</v>
+        <v>-7116.2316</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.8711</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E10" s="1">
-        <v>5393.0528</v>
+        <v>5403.8509</v>
       </c>
       <c r="F10" s="1">
-        <v>1360.9374</v>
+        <v>1363.6537</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>74807.5744</v>
+        <v>74807.6697</v>
       </c>
       <c r="I10" s="1">
-        <v>10624.8006</v>
+        <v>10336.2612</v>
       </c>
       <c r="J10" s="1">
-        <v>85432.375</v>
+        <v>85143.93090000001</v>
       </c>
       <c r="K10" s="1">
-        <v>71158.34639999999</v>
+        <v>71448.98940000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1944</v>
+        <v>13.2219</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2219.2762</v>
+        <v>2223.7154</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-16658.4222</v>
+        <v>-16729.5703</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0861</v>
+        <v>-0.0866</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.1252</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E11" s="1">
-        <v>6753.9901</v>
+        <v>6767.5046</v>
       </c>
       <c r="F11" s="1">
-        <v>652.7811</v>
+        <v>654.0834</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95401.4616</v>
+        <v>95401.51179999999</v>
       </c>
       <c r="I11" s="1">
-        <v>3966.3785</v>
+        <v>3606.6909</v>
       </c>
       <c r="J11" s="1">
-        <v>99367.84</v>
+        <v>99008.20269999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90036.0447</v>
+        <v>90402.2752</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3308</v>
+        <v>13.3583</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9220.6638</v>
+        <v>-9257.569299999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0412</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.1934</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>7406.7713</v>
+        <v>7421.588</v>
       </c>
       <c r="F12" s="1">
-        <v>742.6747</v>
+        <v>744.1972</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105127.2672</v>
+        <v>105126.7934</v>
       </c>
       <c r="I12" s="1">
-        <v>4745.7146</v>
+        <v>4349.1216</v>
       </c>
       <c r="J12" s="1">
-        <v>109872.9818</v>
+        <v>109475.915</v>
       </c>
       <c r="K12" s="1">
-        <v>99256.70849999999</v>
+        <v>99659.8444</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4008</v>
+        <v>13.4284</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10541.0795</v>
+        <v>-10583.8237</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>14.1176</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E13" s="1">
-        <v>8149.446</v>
+        <v>8165.7852</v>
       </c>
       <c r="F13" s="1">
-        <v>834.0236</v>
+        <v>835.6649</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115050.6187</v>
+        <v>115051.0133</v>
       </c>
       <c r="I13" s="1">
-        <v>4204.6352</v>
+        <v>3765.2979</v>
       </c>
       <c r="J13" s="1">
-        <v>119255.2538</v>
+        <v>118816.3112</v>
       </c>
       <c r="K13" s="1">
-        <v>109797.788</v>
+        <v>110243.6681</v>
       </c>
       <c r="L13" s="1">
-        <v>13.473</v>
+        <v>13.5007</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3333.0471</v>
+        <v>3339.7146</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8441.3644</v>
+        <v>-8481.5173</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0052</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>15.3311</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E14" s="1">
-        <v>8983.4696</v>
+        <v>9001.450000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8983.4696</v>
+        <v>-9001.450000000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137726.4705</v>
+        <v>137725.7861</v>
       </c>
       <c r="I14" s="1">
-        <v>5763.2708</v>
+        <v>5283.7806</v>
       </c>
       <c r="J14" s="1">
-        <v>143489.7412</v>
+        <v>143009.5668</v>
       </c>
       <c r="K14" s="1">
-        <v>121572.1994</v>
+        <v>122064.9</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5329</v>
+        <v>13.5606</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137726.4705</v>
+        <v>137725.7861</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1101</v>
+        <v>0.1102</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.2659</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.4103</v>
       </c>
       <c r="C3" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D3" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E3" s="1">
-        <v>815.2683</v>
+        <v>813.6365</v>
       </c>
       <c r="F3" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10117.7247</v>
+        <v>10077.2955</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0118</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>12.3976</v>
       </c>
       <c r="C4" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D4" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E4" s="1">
-        <v>1621.0506</v>
+        <v>1617.8054</v>
       </c>
       <c r="F4" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20097.1374</v>
+        <v>20016.7822</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20097.1374</v>
+        <v>20016.7822</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.3377</v>
+        <v>12.3624</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9633.129199999999</v>
+        <v>-9633.863600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.9013</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E5" s="1">
-        <v>2427.6584</v>
+        <v>2422.8028</v>
       </c>
       <c r="F5" s="1">
-        <v>743.265</v>
+        <v>754.4745</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31319.9489</v>
+        <v>31194.7972</v>
       </c>
       <c r="I5" s="1">
-        <v>366.8708</v>
+        <v>366.1364</v>
       </c>
       <c r="J5" s="1">
-        <v>31686.8197</v>
+        <v>31560.9337</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3576</v>
+        <v>12.3824</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9589.159100000001</v>
+        <v>-9753.2428</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0528</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.3527</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E6" s="1">
-        <v>3170.9234</v>
+        <v>3177.2773</v>
       </c>
       <c r="F6" s="1">
-        <v>687.6722</v>
+        <v>689.0494</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42340.3886</v>
+        <v>42340.3972</v>
       </c>
       <c r="I6" s="1">
-        <v>777.7116</v>
+        <v>612.8936</v>
       </c>
       <c r="J6" s="1">
-        <v>43118.1002</v>
+        <v>42953.2908</v>
       </c>
       <c r="K6" s="1">
-        <v>39589.1591</v>
+        <v>39753.2428</v>
       </c>
       <c r="L6" s="1">
-        <v>12.4851</v>
+        <v>12.5117</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9182.280699999999</v>
+        <v>-9219.136200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0343</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.8804</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E7" s="1">
-        <v>3858.5956</v>
+        <v>3866.3267</v>
       </c>
       <c r="F7" s="1">
-        <v>629.4242</v>
+        <v>630.6998</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53558.8501</v>
+        <v>53558.6769</v>
       </c>
       <c r="I7" s="1">
-        <v>1595.4309</v>
+        <v>1393.7574</v>
       </c>
       <c r="J7" s="1">
-        <v>55154.2811</v>
+        <v>54952.4343</v>
       </c>
       <c r="K7" s="1">
-        <v>48771.4398</v>
+        <v>48972.3791</v>
       </c>
       <c r="L7" s="1">
-        <v>12.6397</v>
+        <v>12.6664</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1426.9155</v>
+        <v>1429.7748</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7309.7436</v>
+        <v>-7342.1245</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0383</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.6268</v>
       </c>
       <c r="C8" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D8" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E8" s="1">
-        <v>4488.0197</v>
+        <v>4497.0265</v>
       </c>
       <c r="F8" s="1">
-        <v>518.5396</v>
+        <v>519.5476</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>65645.36719999999</v>
+        <v>65645.79399999999</v>
       </c>
       <c r="I8" s="1">
-        <v>4285.6873</v>
+        <v>4051.6328</v>
       </c>
       <c r="J8" s="1">
-        <v>69931.0545</v>
+        <v>69697.42690000001</v>
       </c>
       <c r="K8" s="1">
-        <v>57508.099</v>
+        <v>57744.2784</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8137</v>
+        <v>12.8405</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7584.5747</v>
+        <v>-7614.5414</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0733</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>15.3636</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E9" s="1">
-        <v>5006.5593</v>
+        <v>5016.5741</v>
       </c>
       <c r="F9" s="1">
-        <v>482.2839</v>
+        <v>483.259</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76918.7748</v>
+        <v>76918.6289</v>
       </c>
       <c r="I9" s="1">
-        <v>6701.1126</v>
+        <v>6437.0914</v>
       </c>
       <c r="J9" s="1">
-        <v>83619.88740000001</v>
+        <v>83355.7203</v>
       </c>
       <c r="K9" s="1">
-        <v>65092.6737</v>
+        <v>65358.8198</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0015</v>
+        <v>13.0286</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7409.6162</v>
+        <v>-7439.4826</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0462</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.8711</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E10" s="1">
-        <v>5488.8432</v>
+        <v>5499.8331</v>
       </c>
       <c r="F10" s="1">
-        <v>1390.769</v>
+        <v>1366.8426</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76136.2926</v>
+        <v>76136.38959999999</v>
       </c>
       <c r="I10" s="1">
-        <v>9291.4964</v>
+        <v>8997.6088</v>
       </c>
       <c r="J10" s="1">
-        <v>85427.789</v>
+        <v>85133.9984</v>
       </c>
       <c r="K10" s="1">
-        <v>72502.2899</v>
+        <v>72798.30250000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.209</v>
+        <v>13.2365</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2252.9517</v>
+        <v>2257.4583</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-17038.5447</v>
+        <v>-16740.1504</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.08749999999999999</v>
+        <v>-0.0881</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.1252</v>
       </c>
       <c r="C11" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D11" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E11" s="1">
-        <v>6879.6122</v>
+        <v>6866.6757</v>
       </c>
       <c r="F11" s="1">
-        <v>697.4286</v>
+        <v>725.5223999999999</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>97175.89840000001</v>
+        <v>96799.5276</v>
       </c>
       <c r="I11" s="1">
-        <v>2252.9517</v>
+        <v>2257.4583</v>
       </c>
       <c r="J11" s="1">
-        <v>99428.8501</v>
+        <v>99056.986</v>
       </c>
       <c r="K11" s="1">
-        <v>91793.78630000001</v>
+        <v>91795.9112</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3429</v>
+        <v>13.3683</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9851.3182</v>
+        <v>-10268.6811</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.1934</v>
       </c>
       <c r="C12" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D12" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E12" s="1">
-        <v>7577.0408</v>
+        <v>7592.1981</v>
       </c>
       <c r="F12" s="1">
-        <v>781.2542</v>
+        <v>782.8548</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107543.9709</v>
+        <v>107543.4862</v>
       </c>
       <c r="I12" s="1">
-        <v>2401.6335</v>
+        <v>1988.7773</v>
       </c>
       <c r="J12" s="1">
-        <v>109945.6043</v>
+        <v>109532.2634</v>
       </c>
       <c r="K12" s="1">
-        <v>101645.1045</v>
+        <v>102064.5923</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4149</v>
+        <v>13.4434</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11088.6541</v>
+        <v>-11133.6049</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0047</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>14.1176</v>
       </c>
       <c r="C13" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D13" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E13" s="1">
-        <v>8358.295</v>
+        <v>8375.052900000001</v>
       </c>
       <c r="F13" s="1">
-        <v>801.3387</v>
+        <v>767.3723</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>117999.0662</v>
+        <v>117999.4709</v>
       </c>
       <c r="I13" s="1">
-        <v>1312.9794</v>
+        <v>855.1723</v>
       </c>
       <c r="J13" s="1">
-        <v>119312.0456</v>
+        <v>118854.6433</v>
       </c>
       <c r="K13" s="1">
-        <v>112733.7586</v>
+        <v>113198.1972</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4877</v>
+        <v>13.5161</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3409.6684</v>
+        <v>3416.4891</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7903.311</v>
+        <v>-7438.6832</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0053</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>15.3311</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E14" s="1">
-        <v>9159.6338</v>
+        <v>9142.425300000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9159.6338</v>
+        <v>-9142.425300000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>140427.2611</v>
+        <v>139882.7637</v>
       </c>
       <c r="I14" s="1">
-        <v>3409.6684</v>
+        <v>3416.4891</v>
       </c>
       <c r="J14" s="1">
-        <v>143836.9295</v>
+        <v>143299.2529</v>
       </c>
       <c r="K14" s="1">
-        <v>124046.738</v>
+        <v>124053.3696</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5428</v>
+        <v>13.569</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>140427.2611</v>
+        <v>139882.7637</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1123</v>
+        <v>0.1121</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5828</v>
+        <v>13.6099</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5039</v>
+        <v>13.531</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5183</v>
+        <v>13.546</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5329</v>
+        <v>13.5606</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5428</v>
+        <v>13.569</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2367</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3222</v>
+        <v>0.31</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3101</v>
+        <v>0.2994</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3142</v>
+        <v>0.3033</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3184</v>
+        <v>0.3073</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3219</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1502</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1703</v>
+        <v>0.1707</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1547</v>
+        <v>0.1555</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1575</v>
+        <v>0.1583</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1603</v>
+        <v>0.1612</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1629</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.4405</v>
       </c>
       <c r="C6" s="4">
+        <v>1.6973</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.7944</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.7875</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.7807</v>
+      </c>
+      <c r="G6" s="4">
         <v>1.7729</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.8727</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.8661</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.859</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.8514</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3903</v>
+        <v>0.3803</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4048</v>
+        <v>0.3947</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4047</v>
+        <v>0.3946</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4047</v>
+        <v>0.3945</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4036</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7643.2355</v>
+        <v>7627.7936</v>
       </c>
       <c r="D8" s="1">
-        <v>7101.4557</v>
+        <v>7114.1979</v>
       </c>
       <c r="E8" s="1">
-        <v>7217.1735</v>
+        <v>7230.1472</v>
       </c>
       <c r="F8" s="1">
-        <v>7335.4702</v>
+        <v>7348.6806</v>
       </c>
       <c r="G8" s="1">
-        <v>7456.4063</v>
+        <v>7469.8587</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P31_KFSDIV.xlsx
+++ b/output/1Y_P31_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.2659</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.4103</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.3976</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.9013</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.3527</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8804</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6268</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3636</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8711</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1252</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1934</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1176</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3311</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8711.5581</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.154</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2437</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2122</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1815</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
